--- a/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Health_Years_of_Life_Lost_OECD_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Health_Years_of_Life_Lost_OECD_" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
@@ -305,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -326,6 +326,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -367,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -415,6 +420,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +765,9 @@
       <c r="A40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="16">
+        <v>3275.7</v>
+      </c>
       <c r="C40" s="14">
         <v>3275.7</v>
       </c>
@@ -770,7 +780,9 @@
       <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="16">
+        <v>7323.0</v>
+      </c>
       <c r="C41" s="14">
         <v>7323.0</v>
       </c>
@@ -783,7 +795,9 @@
       <c r="A42" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="16">
+        <v>2354.7</v>
+      </c>
       <c r="C42" s="14">
         <v>2354.7</v>
       </c>
@@ -796,7 +810,9 @@
       <c r="A43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="16">
+        <v>4028.5</v>
+      </c>
       <c r="C43" s="14">
         <v>4028.5</v>
       </c>
@@ -809,7 +825,9 @@
       <c r="A44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="16">
+        <v>5193.5</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14">
         <v>5193.5</v>
@@ -820,7 +838,9 @@
       <c r="A45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="16">
+        <v>4161.3</v>
+      </c>
       <c r="C45" s="14">
         <v>4055.1</v>
       </c>
@@ -863,7 +883,9 @@
       <c r="A48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="16">
+        <v>2941.5</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14">
         <v>2941.5</v>
@@ -919,7 +941,9 @@
       <c r="A52" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="16">
+        <v>3124.1</v>
+      </c>
       <c r="C52" s="14">
         <v>3124.1</v>
       </c>
@@ -932,7 +956,9 @@
       <c r="A53" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="13"/>
+      <c r="B53" s="16">
+        <v>2995.8</v>
+      </c>
       <c r="C53" s="14">
         <v>2995.8</v>
       </c>
@@ -945,7 +971,9 @@
       <c r="A54" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="16">
+        <v>3100.6</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14">
         <v>3100.6</v>
@@ -971,7 +999,9 @@
       <c r="A56" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="16">
+        <v>2790.7</v>
+      </c>
       <c r="C56" s="14">
         <v>2790.7</v>
       </c>
@@ -984,7 +1014,9 @@
       <c r="A57" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="16">
+        <v>2450.4</v>
+      </c>
       <c r="C57" s="14">
         <v>2450.4</v>
       </c>
@@ -997,7 +1029,9 @@
       <c r="A58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="16">
+        <v>2490.2</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="14">
         <v>2490.2</v>
@@ -1008,7 +1042,9 @@
       <c r="A59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="16">
+        <v>2413.4</v>
+      </c>
       <c r="C59" s="14">
         <v>2413.4</v>
       </c>
@@ -1021,7 +1057,9 @@
       <c r="A60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="16">
+        <v>2829.7</v>
+      </c>
       <c r="C60" s="14">
         <v>2829.7</v>
       </c>
@@ -1079,7 +1117,9 @@
       <c r="A64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="16">
+        <v>6465.9</v>
+      </c>
       <c r="C64" s="14">
         <v>6465.9</v>
       </c>
@@ -1092,7 +1132,9 @@
       <c r="A65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="16">
+        <v>2588.3</v>
+      </c>
       <c r="C65" s="14">
         <v>2588.3</v>
       </c>
@@ -1120,7 +1162,9 @@
       <c r="A67" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="16">
+        <v>3169.1</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14">
         <v>3169.1</v>
@@ -1191,7 +1235,9 @@
       <c r="A72" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="16">
+        <v>4024.2</v>
+      </c>
       <c r="C72" s="14">
         <v>4024.2</v>
       </c>
@@ -1204,7 +1250,9 @@
       <c r="A73" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="16">
+        <v>4583.7</v>
+      </c>
       <c r="C73" s="14">
         <v>4583.7</v>
       </c>

--- a/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
@@ -432,7 +432,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
+++ b/datastatic/datasets/online/SDG3_Health_Years_of_Life_Lost_OECD_2013.xlsx
@@ -432,7 +432,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
